--- a/NewArrivals/productData.xlsx
+++ b/NewArrivals/productData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TestAutomation\NewArrivals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\NewArrivals\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Style</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>SzRange</t>
-  </si>
-  <si>
-    <t>5618</t>
   </si>
   <si>
     <t>Heather Gray</t>
@@ -487,7 +484,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:IV6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -506,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -518,33 +515,33 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>5618</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="3">
         <v>119</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
